--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\BDPbES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_A7B793C0A30112B9E61B51AF56E2ED41B8A5EE4B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F83CB2F6-17A8-42BE-A890-8C600289C17F}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Notes:</t>
   </si>
@@ -76,12 +90,27 @@
   <si>
     <t>offshore wind</t>
   </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Priority Order (dimensionless)</t>
+  </si>
+  <si>
+    <t>US model petrolium is 1, changed 2 for HK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +122,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,12 +154,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,6 +173,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -181,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +257,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,10 +501,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -464,6 +543,11 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -473,21 +557,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -1773,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK14" si="2">$B9</f>
+        <f t="shared" ref="D9:AK17" si="2">$B9</f>
         <v>2</v>
       </c>
       <c r="AK9">
@@ -1934,147 +2023,112 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2518,6 +2572,450 @@
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C17" si="3">$B15</f>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:AK17" si="4">$B17</f>
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2779,13 +3277,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1569FD3-5FD4-4481-858B-328C774B39BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0048A170-8199-4818-B401-B84EF3259326}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2043CA0D-76BD-46A6-8FC7-B7348CE902C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{650010D1-E71E-485F-8957-6CE38879C99D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52F2D483-B321-4432-BFD9-37921B08763B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCB5847-8B7B-4F59-9ADC-462A0FE547EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>